--- a/Repositorio/Proyecto/DocumentosPropios/MatrizGestionInteresados.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/MatrizGestionInteresados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\USC\Cuarto\XesPro\Proxecto\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{293028A6-84C7-4C0B-A528-853459F3BCA6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{14694691-CE12-4C12-9CD0-6EECA8C05A3F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="157" uniqueCount="87">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="156" uniqueCount="86">
   <si>
     <t>Nombre</t>
-  </si>
-  <si>
-    <t>Clasif.</t>
   </si>
   <si>
     <t>Rol</t>
@@ -322,8 +319,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,12 +356,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -497,12 +488,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -515,9 +503,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -538,13 +523,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -994,28 +982,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="1" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1024,578 +1011,543 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="E10" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="s">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13" t="s">
+      <c r="D21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13" t="s">
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E30" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="9" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D15:D18"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="C2">
     <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1610,7 +1562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="C8">
     <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1625,7 +1577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="C10">
     <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1640,7 +1592,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1655,7 +1607,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1670,7 +1622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="C24">
     <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1685,7 +1637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="E2">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1700,7 +1652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1715,7 +1667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="E3">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1730,7 +1682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1745,7 +1697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="E5">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1760,7 +1712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="E10">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1775,7 +1727,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>

--- a/Repositorio/Proyecto/DocumentosPropios/MatrizGestionInteresados.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/MatrizGestionInteresados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergy6rey\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{14694691-CE12-4C12-9CD0-6EECA8C05A3F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{50FCF4C7-29B3-4E6A-B9CE-A3207D87556E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,7 +986,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,10 +994,10 @@
     <col min="1" max="2" width="22.21875" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
